--- a/windows.fullsdecalcul/Windows.factura .xlsx
+++ b/windows.fullsdecalcul/Windows.factura .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11760"/>
+    <workbookView windowWidth="20550" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,15 +94,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,6 +145,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -159,6 +182,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -166,111 +271,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -287,25 +287,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,85 +353,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,37 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,25 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,17 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -521,15 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -550,6 +530,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -561,43 +602,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,8 +673,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -635,51 +691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -688,164 +699,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,144 +874,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1286,20 +1286,20 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="19.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.78095238095238" customWidth="1"/>
-    <col min="5" max="5" width="12.1142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.552380952381" customWidth="1"/>
-    <col min="7" max="7" width="14.7809523809524" customWidth="1"/>
-    <col min="8" max="8" width="21.552380952381" customWidth="1"/>
-    <col min="10" max="10" width="11.2190476190476"/>
+    <col min="4" max="4" width="8.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="12.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="21.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="11.2222222222222"/>
     <col min="11" max="11" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46.5" spans="1:4">
+    <row r="1" ht="45" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,453 +1323,453 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="E7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="E8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>123935</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="24">
         <v>14.99</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="25">
         <f>E17*D17</f>
         <v>29.98</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="26">
         <v>0.05</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="25">
         <f>F17*G17</f>
         <v>1.499</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="26">
         <v>0.21</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="25">
         <f>(F17-H17)*I17</f>
         <v>5.98101</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="25">
         <f>F17-H17+J17</f>
         <v>34.46201</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>123936</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="24">
         <v>29.15</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="25">
         <f t="shared" ref="F18:F26" si="0">E18*D18</f>
         <v>29.15</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="27">
         <v>0.03</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="25">
         <f>F18*G18</f>
         <v>0.8745</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="26">
         <v>0.21</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="25">
         <f>(F18-H18)*I18</f>
         <v>5.937855</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="25">
         <f>F18-H18+J18</f>
         <v>34.213355</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>123937</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>3</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="24">
         <v>25.66</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="25">
         <f t="shared" si="0"/>
         <v>76.98</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="27">
         <v>0.1</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="25">
         <f>F19*G19</f>
         <v>7.698</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="26">
         <v>0.1</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="25">
         <f>(F19-H19)*I19</f>
         <v>6.9282</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="25">
         <f>F19-H19+J19</f>
         <v>76.2102</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>123938</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>5</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="24">
         <v>0.85</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="25">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14">
+      <c r="G20" s="9"/>
+      <c r="H20" s="25">
         <f>F20*G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="26">
         <v>0.04</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="25">
         <f>(F20-H20)*I20</f>
         <v>0.17</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="25">
         <f>F20-H20+J20</f>
         <v>4.42</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14">
+      <c r="G21" s="9"/>
+      <c r="H21" s="25">
         <f t="shared" ref="H21:H26" si="1">F21*G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14">
+      <c r="I21" s="9"/>
+      <c r="J21" s="25">
         <f t="shared" ref="J21:J26" si="2">(F21-H21)*I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="25">
         <f t="shared" ref="K21:K26" si="3">F21-H21+J21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="14">
+      <c r="G22" s="9"/>
+      <c r="H22" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="14">
+      <c r="I22" s="9"/>
+      <c r="J22" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14">
+      <c r="G23" s="9"/>
+      <c r="H23" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14">
+      <c r="I23" s="9"/>
+      <c r="J23" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="14">
+      <c r="G24" s="9"/>
+      <c r="H24" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14">
+      <c r="I24" s="9"/>
+      <c r="J24" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="14">
+      <c r="G25" s="9"/>
+      <c r="H25" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14">
+      <c r="I25" s="9"/>
+      <c r="J25" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="14">
+      <c r="G26" s="9"/>
+      <c r="H26" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="14">
+      <c r="I26" s="9"/>
+      <c r="J26" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="17" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="19">
+      <c r="B28" s="12">
         <f>SUM(F17:F26)</f>
         <v>140.36</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14">
         <f>SUM(H17:H26)</f>
         <v>10.0715</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23">
+      <c r="E28" s="28"/>
+      <c r="F28" s="29">
         <v>0.04</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25">
+      <c r="G28" s="30"/>
+      <c r="H28" s="31">
         <f ca="1">SUMIF(I$17:K$25,F28,K$17:K$25)-SUMIF(I$17:K$25,F28,J$17:J$25)</f>
         <v>4.25</v>
       </c>
       <c r="I28" s="36"/>
-      <c r="J28" s="25">
+      <c r="J28" s="31">
         <f ca="1">F28*H28</f>
         <v>0.17</v>
       </c>
       <c r="K28" s="36"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="23">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="29">
         <v>0.1</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25">
+      <c r="G29" s="30"/>
+      <c r="H29" s="31">
         <f ca="1">SUMIF(I$17:K$25,F29,K$17:K$25)-SUMIF(I$17:K$25,F29,J$17:J$25)</f>
         <v>69.282</v>
       </c>
       <c r="I29" s="36"/>
-      <c r="J29" s="25">
+      <c r="J29" s="31">
         <f ca="1">F29*H29</f>
         <v>6.9282</v>
       </c>
       <c r="K29" s="36"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="23">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="29">
         <v>0.21</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25">
+      <c r="G30" s="30"/>
+      <c r="H30" s="31">
         <f ca="1">SUMIF(I$17:K$25,F30,K$17:K$25)-SUMIF(I$17:K$25,F30,J$17:J$25)</f>
         <v>56.7565</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="25">
+      <c r="J30" s="31">
         <f ca="1">F30*H30</f>
         <v>11.918865</v>
       </c>
       <c r="K30" s="36"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="25">
+      <c r="H31" s="31">
         <f ca="1">SUMIF(I$17:K$25,F31,K$17:K$25)-SUMIF(I$17:K$25,F31,J$17:J$25)</f>
         <v>0</v>
       </c>
       <c r="I31" s="36"/>
-      <c r="J31" s="25">
+      <c r="J31" s="31">
         <f ca="1">F31*H31</f>
         <v>0</v>
       </c>
